--- a/ProjektdateienDatenbank/Tabellenmodell/Sunshine Parks Tabellenmodell.xlsx
+++ b/ProjektdateienDatenbank/Tabellenmodell/Sunshine Parks Tabellenmodell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technischeunivers049-my.sharepoint.com/personal/hendrik_lendeckel_fhe_technischeunivers049_onmicrosoft_com/Documents/SWT1_DB1_Projekt PG B1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technischeunivers049-my.sharepoint.com/personal/max_schelenz_fhe_technischeunivers049_onmicrosoft_com/Documents/3.Semester/DWP/ws202223_gwpdwp_sunshineparks/ProjektdateienDatenbank/Tabellenmodell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_7EF3483F628DE413E1A3E82D81B80EB1631C4A39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE75C6F-4734-47D0-963A-6A2CFBD0CD72}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="11_7EF3483F628DE413E1A3E82D81B80EB1631C4A39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E1F6152-B855-4E44-904A-A16E95ACEB58}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="1035" windowWidth="18225" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="121">
   <si>
     <t>Tabellenmodell Feriendorfverwaltungssystem</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -557,7 +557,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -853,13 +853,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -867,12 +867,12 @@
     <col min="4" max="4" width="93.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -894,7 +894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -908,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -919,7 +919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -941,7 +941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -952,7 +952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -966,7 +966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -980,7 +980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -994,7 +994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1030,7 +1030,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1116,7 +1116,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>2</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
@@ -1764,7 +1764,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>2</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>69</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>71</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>76</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>87</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>2</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>88</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>89</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>90</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>91</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>86</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>96</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>2</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>97</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>88</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>101</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>104</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>2</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>99</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>105</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>109</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>110</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>107</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>111</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>114</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>2</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>111</v>
       </c>
@@ -2236,19 +2236,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>117</v>
       </c>
@@ -2256,7 +2256,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>22</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>111</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>118</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>2</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>65</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>119</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>120</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>75</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>76</v>
       </c>
@@ -2401,6 +2401,20 @@
       </c>
       <c r="C148" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
